--- a/model_parameter_optimize/LAI.xlsx
+++ b/model_parameter_optimize/LAI.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\model_parameter_optimize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5474BEF1-994A-4620-90AD-F07C6E729206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0665C93C-DEB9-42B6-A95A-D8362015800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2006,162 +2006,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066513C-F352-4C1F-9B43-BE7CB195BFEB}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>43994</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44002</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>44010</v>
-      </c>
-      <c r="B5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>44018</v>
-      </c>
-      <c r="B6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>44026</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>44034</v>
-      </c>
-      <c r="B8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>44042</v>
-      </c>
-      <c r="B9">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>44050</v>
-      </c>
-      <c r="B10">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>44074</v>
-      </c>
-      <c r="B11">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>44082</v>
-      </c>
-      <c r="B12">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>44090</v>
-      </c>
-      <c r="B13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>44098</v>
-      </c>
-      <c r="B14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>44106</v>
-      </c>
-      <c r="B15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>44114</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>44122</v>
-      </c>
-      <c r="B17">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEEDFE3-9214-493E-8961-43D6BDBACC04}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2316,12 +2160,168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066513C-F352-4C1F-9B43-BE7CB195BFEB}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>43986</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>44018</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>44026</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>44034</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>44042</v>
+      </c>
+      <c r="B9">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>44050</v>
+      </c>
+      <c r="B10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B11">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>44082</v>
+      </c>
+      <c r="B12">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>44098</v>
+      </c>
+      <c r="B14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>44106</v>
+      </c>
+      <c r="B15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>44114</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>44122</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAE35FC-99D0-456D-A8D1-980A336F6E7C}">
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2608,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD29F8BF-5C1B-4D8A-9C23-DF6AA835BF39}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A56" activeCellId="1" sqref="C36:C56 A36:A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
